--- a/backend/users.xlsx
+++ b/backend/users.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\hotel\hotel\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26E8D35-950B-4C53-AF84-85B946B4743F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="1548" yWindow="3396" windowWidth="17256" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
-  <si>
-    <t>visitorid</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="278">
   <si>
     <t>password</t>
   </si>
@@ -848,15 +852,18 @@
   </si>
   <si>
     <t>crimsonsky</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -872,27 +879,21 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -900,295 +901,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="пј­пјі г‚ґг‚·гѓѓг‚Ї"/>
-        <a:font script="Hang" typeface="л§‘мќЂ кі л”•"/>
-        <a:font script="Hans" typeface="е®‹дЅ“"/>
-        <a:font script="Hant" typeface="ж–°зґ°жЋй«”"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="пј­пјі жЋжњќ"/>
-        <a:font script="Hang" typeface="л§‘мќЂ кі л”•"/>
-        <a:font script="Hans" typeface="е®‹дЅ“"/>
-        <a:font script="Hant" typeface="ж–°зґ°жЋй«”"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
@@ -1240,7 +961,7 @@
         <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1355,2818 +1076,2746 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col bestFit="1" min="2" max="2" width="11.47265625"/>
-    <col bestFit="1" min="3" max="3" width="21.00390625"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1"/>
+    <col min="3" max="3" width="21" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>394842</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="str">
-        <f>C2&amp;"@gmail.ru"</f>
+        <f t="shared" ref="D2:D33" si="0">C2&amp;"@gmail.ru"</f>
         <v>adventurelover55@gmail.ru</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>649742</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="str">
-        <f>C3&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>fitnessfreak99@gmail.ru</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>642405</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="str">
-        <f>C4&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>bookworm456@gmail.ru</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>141942</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" t="str">
-        <f>C5&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>beachlover77@gmail.ru</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1311548</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" t="str">
-        <f>C6&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>starwarsfan42@gmail.ru</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>229617</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" t="str">
-        <f>C7&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>codingmaster55@gmail.ru</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>118719</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" t="str">
-        <f>C8&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>musicjunkie77@gmail.ru</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>221702</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D9" t="str">
-        <f>C9&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>travelbug123@gmail.ru</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1169027</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D10" t="str">
-        <f>C10&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>gamerchick77@gmail.ru</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>136894</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D11" t="str">
-        <f>C11&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>moviebuff99@gmail.ru</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>314321</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="str">
-        <f>C12&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>artlover56@gmail.ru</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1332698</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" t="str">
-        <f>C13&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>naturelover33@gmail.ru</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>631586</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D14" t="str">
-        <f>C14&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>sciencegeek101@gmail.ru</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1259920</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D15" t="str">
-        <f>C15&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>coffeeaddict44@gmail.ru</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>856110</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D16" t="str">
-        <f>C16&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>wanderlust23@gmail.ru</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>902806</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D17" t="str">
-        <f>C17&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>yogigirl88@gmail.ru</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>110549</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D18" t="str">
-        <f>C18&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>musiclover23@gmail.ru</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>88580</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D19" t="str">
-        <f>C19&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>thrillseeker99@gmail.ru</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1083417</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D20" t="str">
-        <f>C20&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>techsavvy23@gmail.ru</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>630720</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D21" t="str">
-        <f>C21&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>catlover123@gmail.ru</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>284476</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D22" t="str">
-        <f>C22&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>dogperson56@gmail.ru</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1227518</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D23" t="str">
-        <f>C23&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>photographylover@gmail.ru</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1047535</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D24" t="str">
-        <f>C24&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>fashionicon88@gmail.ru</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>258584</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>adventurejunkie55@gmail.ru</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="D25" t="str">
-        <f>C25&amp;"@gmail.ru"</f>
-        <v>adventurejunkie55@gmail.ru</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="1" t="s">
+      <c r="C26" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D26" t="str">
-        <f>C26&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>bookworm1234@gmail.ru</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>849923</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D27" t="str">
-        <f>C27&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>starwarsgeek42@gmail.ru</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>678384</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D28" t="str">
-        <f>C28&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>codingninja55@gmail.ru</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1265727</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D29" t="str">
-        <f>C29&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>traveladdict123@gmail.ru</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>727363</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="D30" t="str">
-        <f>C30&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>gamerboy77@gmail.ru</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>975063</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D31" t="str">
-        <f>C31&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>moviefanatic99@gmail.ru</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>88467</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D32" t="str">
-        <f>C32&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>artenthusiast56@gmail.ru</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>301138</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D33" t="str">
-        <f>C33&amp;"@gmail.ru"</f>
+        <f t="shared" si="0"/>
         <v>naturephotographer33@gmail.ru</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>878500</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D34" t="str">
-        <f>C34&amp;"@gmail.ru"</f>
+        <f t="shared" ref="D34:D65" si="1">C34&amp;"@gmail.ru"</f>
         <v>sciencewhiz101@gmail.ru</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1055313</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D35" t="str">
-        <f>C35&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>coffeelover44@gmail.ru</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>324307</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D36" t="str">
-        <f>C36&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>wanderer23@gmail.ru</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>933796</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D37" t="str">
-        <f>C37&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>yogiguy88@gmail.ru</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1274495</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="D38" t="str">
-        <f>C38&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>musicaddict77@gmail.ru</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1339828</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="D39" t="str">
-        <f>C39&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>thrillseeker123@gmail.ru</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>185974</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D40" t="str">
-        <f>C40&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>techguru23@gmail.ru</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>636470</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="D41" t="str">
-        <f>C41&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>catperson1234@gmail.ru</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>710020</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="D42" t="str">
-        <f>C42&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>doglover56@gmail.ru</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>153486</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D43" t="str">
-        <f>C43&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>photographyenthusiast@gmail.ru</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>890673</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="D44" t="str">
-        <f>C44&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>fashionista88@gmail.ru</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>680221</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D45" t="str">
-        <f>C45&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>traveler123@gmail.ru</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1232273</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D46" t="str">
-        <f>C46&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>foodiegirl88@gmail.ru</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>118119</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D47" t="str">
-        <f>C47&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>hikinglover55@gmail.ru</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>108345</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="D48" t="str">
-        <f>C48&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>gamerdude77@gmail.ru</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>627743</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="D49" t="str">
-        <f>C49&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>movielover123@gmail.ru</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>857747</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="D50" t="str">
-        <f>C50&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>artenthusiast99@gmail.ru</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>200252</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D51" t="str">
-        <f>C51&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>natureexplorer33@gmail.ru</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>530559</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="D52" t="str">
-        <f>C52&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>sciencefanatic101@gmail.ru</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>137482</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="D53" t="str">
-        <f>C53&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>coffeelover123@gmail.ru</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>349230</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="D54" t="str">
-        <f>C54&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>wanderlustgirl@gmail.ru</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>154008</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="D55" t="str">
-        <f>C55&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>yogalover88@gmail.ru</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>296158</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="D56" t="str">
-        <f>C56&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>musicfan123@gmail.ru</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>420982</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="D57" t="str">
-        <f>C57&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>thrillseeker55@gmail.ru</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>769242</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="D58" t="str">
-        <f>C58&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>techwizard23@gmail.ru</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>273621</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="D59" t="str">
-        <f>C59&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>catperson456@gmail.ru</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1092559</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D60" t="str">
-        <f>C60&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>doglover123@gmail.ru</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>935382</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="D61" t="str">
-        <f>C61&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>photographylover77@gmail.ru</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>141441</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="D62" t="str">
-        <f>C62&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>fashionaddict88@gmail.ru</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>592128</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="D63" t="str">
-        <f>C63&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>adventurer1234@gmail.ru</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1128933</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="D64" t="str">
-        <f>C64&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>fitnessguru99@gmail.ru</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>426506</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="D65" t="str">
-        <f>C65&amp;"@gmail.ru"</f>
+        <f t="shared" si="1"/>
         <v>bookwormgirl456@gmail.ru</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>288352</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="D66" t="str">
-        <f>C66&amp;"@gmail.ru"</f>
+        <f t="shared" ref="D66:D97" si="2">C66&amp;"@gmail.ru"</f>
         <v>beachbum77@gmail.ru</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>14409</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="D67" t="str">
-        <f>C67&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>starwarsnerd42@gmail.ru</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>403665</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="D68" t="str">
-        <f>C68&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>codingwhiz55@gmail.ru</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>145479</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="D69" t="str">
-        <f>C69&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>musicaddict23@gmail.ru</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>936143</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
         <v>140</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="D70" t="str">
-        <f>C70&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>travelbug1234@gmail.ru</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>175134</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="D71" t="str">
-        <f>C71&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>yogi_girl88@gmail.ru</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>261414</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="D72" t="str">
-        <f>C72&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>explorer1234@gmail.ru</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>972799</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="D73" t="str">
-        <f>C73&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>foodlover88@gmail.ru</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>214184</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="D74" t="str">
-        <f>C74&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>hiker55@gmail.ru</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>933921</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" t="s">
         <v>150</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="D75" t="str">
-        <f>C75&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>gamer77@gmail.ru</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>774403</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" t="s">
         <v>152</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="D76" t="str">
-        <f>C76&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>moviefan123@gmail.ru</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>414536</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D77" t="str">
-        <f>C77&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>artlover99@gmail.ru</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>867351</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="D78" t="str">
-        <f>C78&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>naturelover55@gmail.ru</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1075063</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" t="s">
         <v>158</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="D79" t="str">
-        <f>C79&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>sciencebuff101@gmail.ru</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>37613</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="D80" t="str">
-        <f>C80&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>coffeelover456@gmail.ru</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>681872</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="D81" t="str">
-        <f>C81&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>wanderlustgirl88@gmail.ru</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>424925</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="D82" t="str">
-        <f>C82&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>yogalover55@gmail.ru</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>657652</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" t="s">
         <v>166</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="D83" t="str">
-        <f>C83&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>musiclover1234@gmail.ru</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1186333</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" t="s">
         <v>168</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="D84" t="str">
-        <f>C84&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>thrillseeker77@gmail.ru</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>550789</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" t="s">
         <v>170</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="D85" t="str">
-        <f>C85&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>catlover456@gmail.ru</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1045247</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" t="s">
         <v>172</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="D86" t="str">
-        <f>C86&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>dogperson123@gmail.ru</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1401515</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" t="s">
         <v>174</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="D87" t="str">
-        <f>C87&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>photographyfan88@gmail.ru</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1210126</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" t="s">
         <v>176</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="D88" t="str">
-        <f>C88&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>fashionista123@gmail.ru</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>377139</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" t="s">
         <v>178</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="D89" t="str">
-        <f>C89&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>adventurelover99@gmail.ru</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1024807</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" t="s">
         <v>180</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="D90" t="str">
-        <f>C90&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>fitnessjunkie55@gmail.ru</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>611804</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" t="s">
         <v>182</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="D91" t="str">
-        <f>C91&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>bookworm88@gmail.ru</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1022349</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" t="s">
         <v>184</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="D92" t="str">
-        <f>C92&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>beachgoer77@gmail.ru</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1036038</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" t="s">
         <v>186</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="D93" t="str">
-        <f>C93&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>codingpro55@gmail.ru</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1036741</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" t="s">
         <v>188</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="D94" t="str">
-        <f>C94&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>musicjunkie23@gmail.ru</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1058851</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" t="s">
         <v>190</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="D95" t="str">
-        <f>C95&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>traveladdict1234@gmail.ru</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1192454</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" t="s">
         <v>192</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="D96" t="str">
-        <f>C96&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>gamerchick88@gmail.ru</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1138721</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" t="s">
         <v>194</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="D97" t="str">
-        <f>C97&amp;"@gmail.ru"</f>
+        <f t="shared" si="2"/>
         <v>movieaddict99@gmail.ru</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>572600</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" t="s">
         <v>196</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="D98" t="str">
-        <f>C98&amp;"@gmail.ru"</f>
+        <f t="shared" ref="D98:D129" si="3">C98&amp;"@gmail.ru"</f>
         <v>natureenthusiast33@gmail.ru</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1024362</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" t="s">
         <v>198</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="D99" t="str">
-        <f>C99&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>scienceenthusiast101@gmail.ru</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>118072</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" t="s">
         <v>200</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="D100" t="str">
-        <f>C100&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>coffeeholic44@gmail.ru</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>970928</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" t="s">
         <v>202</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="D101" t="str">
-        <f>C101&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>wanderlustchick23@gmail.ru</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>428686</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" t="s">
         <v>204</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="D102" t="str">
-        <f>C102&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>yogilover88@gmail.ru</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>612435</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" t="s">
         <v>206</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="D103" t="str">
-        <f>C103&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>thrillseeker1234@gmail.ru</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>921615</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+      <c r="C104" t="s">
         <v>208</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="D104" t="str">
-        <f>C104&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>techexpert23@gmail.ru</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1265286</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" t="s">
         <v>210</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="D105" t="str">
-        <f>C105&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>photographyaddict77@gmail.ru</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>823756</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" t="s">
+        <v>211</v>
+      </c>
+      <c r="C106" t="s">
         <v>212</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="D106" t="str">
-        <f>C106&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>fashionlover88@gmail.ru</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1284611</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107" t="s">
         <v>214</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="D107" t="str">
-        <f>C107&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>adventureseeker55@gmail.ru</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>952205</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+      <c r="C108" t="s">
         <v>216</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="D108" t="str">
-        <f>C108&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>fitnesslover99@gmail.ru</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1156082</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" t="s">
         <v>218</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="D109" t="str">
-        <f>C109&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>bookwormgirl1234@gmail.ru</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>693546</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" t="s">
         <v>220</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="D110" t="str">
-        <f>C110&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>sunnyday@gmail.ru</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>985318</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+      <c r="C111" t="s">
         <v>222</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="D111" t="str">
-        <f>C111&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>bluerain@gmail.ru</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1374771</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+      <c r="C112" t="s">
         <v>224</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="D112" t="str">
-        <f>C112&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>firefly@gmail.ru</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>513582</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" t="s">
+        <v>225</v>
+      </c>
+      <c r="C113" t="s">
         <v>226</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="D113" t="str">
-        <f>C113&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>silvercloud@gmail.ru</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1283664</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" t="s">
+        <v>227</v>
+      </c>
+      <c r="C114" t="s">
         <v>228</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="D114" t="str">
-        <f>C114&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>greenleaf@gmail.ru</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>108262</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115" t="s">
         <v>230</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="D115" t="str">
-        <f>C115&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>moonbeam@gmail.ru</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>137197</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116" t="s">
         <v>232</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="D116" t="str">
-        <f>C116&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>starlight@gmail.ru</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1157640</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" t="s">
         <v>234</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="D117" t="str">
-        <f>C117&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>redrose@gmail.ru</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>51696</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118" t="s">
         <v>236</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="D118" t="str">
-        <f>C118&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>oceanwave@gmail.ru</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>422109</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" t="s">
+        <v>237</v>
+      </c>
+      <c r="C119" t="s">
         <v>238</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="D119" t="str">
-        <f>C119&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>goldenstar@gmail.ru</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1369859</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+      <c r="C120" t="s">
         <v>240</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="D120" t="str">
-        <f>C120&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>wildflower@gmail.ru</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>178226</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" t="s">
+        <v>241</v>
+      </c>
+      <c r="C121" t="s">
         <v>242</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="D121" t="str">
-        <f>C121&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>thunderbolt@gmail.ru</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>192889</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" t="s">
+        <v>243</v>
+      </c>
+      <c r="C122" t="s">
         <v>244</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="D122" t="str">
-        <f>C122&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>frostbite@gmail.ru</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>238591</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" t="s">
+        <v>245</v>
+      </c>
+      <c r="C123" t="s">
         <v>246</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="D123" t="str">
-        <f>C123&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>sandcastle@gmail.ru</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>616</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" t="s">
+        <v>247</v>
+      </c>
+      <c r="C124" t="s">
         <v>248</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="D124" t="str">
-        <f>C124&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>mistyforest@gmail.ru</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>359610</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" t="s">
         <v>250</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="D125" t="str">
-        <f>C125&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>snowflake@gmail.ru</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>934709</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" t="s">
+        <v>251</v>
+      </c>
+      <c r="C126" t="s">
         <v>252</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="D126" t="str">
-        <f>C126&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>autumnbreeze@gmail.ru</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>503862</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" t="s">
+        <v>253</v>
+      </c>
+      <c r="C127" t="s">
         <v>254</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="D127" t="str">
-        <f>C127&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>rainbowspark@gmail.ru</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>684304</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" t="s">
+        <v>255</v>
+      </c>
+      <c r="C128" t="s">
         <v>256</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="D128" t="str">
-        <f>C128&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>mountainpeak@gmail.ru</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>381128</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" t="s">
+        <v>257</v>
+      </c>
+      <c r="C129" t="s">
         <v>258</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="D129" t="str">
-        <f>C129&amp;"@gmail.ru"</f>
+        <f t="shared" si="3"/>
         <v>seashell@gmail.ru</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1382945</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" t="s">
+        <v>259</v>
+      </c>
+      <c r="C130" t="s">
         <v>260</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="D130" t="str">
-        <f>C130&amp;"@gmail.ru"</f>
+        <f t="shared" ref="D130:D161" si="4">C130&amp;"@gmail.ru"</f>
         <v>whisperwind@gmail.ru</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>301111</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" t="s">
+        <v>261</v>
+      </c>
+      <c r="C131" t="s">
         <v>262</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="D131" t="str">
-        <f>C131&amp;"@gmail.ru"</f>
+        <f t="shared" si="4"/>
         <v>blazingfire@gmail.ru</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>516027</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" t="s">
+        <v>263</v>
+      </c>
+      <c r="C132" t="s">
         <v>264</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="D132" t="str">
-        <f>C132&amp;"@gmail.ru"</f>
+        <f t="shared" si="4"/>
         <v>twilightdusk@gmail.ru</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>380395</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" t="s">
+        <v>265</v>
+      </c>
+      <c r="C133" t="s">
         <v>266</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="D133" t="str">
-        <f>C133&amp;"@gmail.ru"</f>
+        <f t="shared" si="4"/>
         <v>morningdew@gmail.ru</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>501901</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+      <c r="C134" t="s">
         <v>268</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="D134" t="str">
-        <f>C134&amp;"@gmail.ru"</f>
+        <f t="shared" si="4"/>
         <v>midnightmoon@gmail.ru</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>518659</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" t="s">
         <v>270</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="D135" t="str">
-        <f>C135&amp;"@gmail.ru"</f>
+        <f t="shared" si="4"/>
         <v>stardust@gmail.ru</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>349559</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" t="s">
+        <v>271</v>
+      </c>
+      <c r="C136" t="s">
         <v>272</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="D136" t="str">
-        <f>C136&amp;"@gmail.ru"</f>
+        <f t="shared" si="4"/>
         <v>crystalclear@gmail.ru</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>391923</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" t="s">
+        <v>273</v>
+      </c>
+      <c r="C137" t="s">
         <v>274</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="D137" t="str">
-        <f>C137&amp;"@gmail.ru"</f>
+        <f t="shared" si="4"/>
         <v>emeraldisle@gmail.ru</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>892013</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" t="s">
+        <v>275</v>
+      </c>
+      <c r="C138" t="s">
         <v>276</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="D138" t="str">
-        <f>C138&amp;"@gmail.ru"</f>
+        <f t="shared" si="4"/>
         <v>crimsonsky@gmail.ru</v>
       </c>
     </row>
-    <row r="139" ht="14.25">
-      <c r="B139" s="1"/>
-    </row>
-    <row r="140" ht="14.25">
-      <c r="B140" s="1"/>
-    </row>
-    <row r="141" ht="14.25">
-      <c r="B141" s="1"/>
-    </row>
-    <row r="142" ht="14.25">
-      <c r="B142" s="1"/>
-    </row>
-    <row r="143" ht="14.25">
-      <c r="B143" s="1"/>
-    </row>
-    <row r="144" ht="14.25">
-      <c r="B144" s="1"/>
-    </row>
-    <row r="145" ht="14.25">
-      <c r="B145" s="1"/>
-    </row>
-    <row r="146" ht="14.25">
-      <c r="B146" s="1"/>
-    </row>
-    <row r="147" ht="14.25">
-      <c r="B147" s="1"/>
-    </row>
-    <row r="148" ht="14.25">
-      <c r="B148" s="1"/>
-    </row>
-    <row r="149" ht="14.25">
-      <c r="B149" s="1"/>
-    </row>
-    <row r="150" ht="14.25">
-      <c r="B150" s="1"/>
-    </row>
-    <row r="151" ht="14.25"/>
-    <row r="152" ht="14.25"/>
-    <row r="153" ht="14.25"/>
-    <row r="154" ht="14.25"/>
-    <row r="155" ht="14.25"/>
-    <row r="156" ht="14.25"/>
-    <row r="157" ht="14.25"/>
-    <row r="158" ht="14.25"/>
-    <row r="159" ht="14.25"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A128"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="A22" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="A23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="A24" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="A25" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="A26" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="A30" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="A31" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="A32" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="A33" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="A34" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="A35" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="A36" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="A37" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="A38" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="A39" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="A40" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="A41" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="A42" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="A43" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="A44" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25">
-      <c r="A45" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25">
-      <c r="A46" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25">
-      <c r="A47" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25">
-      <c r="A48" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25">
-      <c r="A49" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25">
-      <c r="A50" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25">
-      <c r="A51" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25">
-      <c r="A52" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25">
-      <c r="A53" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25">
-      <c r="A54" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25">
-      <c r="A55" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25">
-      <c r="A56" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25">
-      <c r="A57" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25">
-      <c r="A58" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25">
-      <c r="A59" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25">
-      <c r="A60" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25">
-      <c r="A61" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25">
-      <c r="A62" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25">
-      <c r="A63" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25">
-      <c r="A64" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25">
-      <c r="A65" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25">
-      <c r="A66" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25">
-      <c r="A67" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25">
-      <c r="A68" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25">
-      <c r="A69" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25">
-      <c r="A70" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25">
-      <c r="A71" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25">
-      <c r="A72" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25">
-      <c r="A73" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25">
-      <c r="A74" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25">
-      <c r="A75" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25">
-      <c r="A76" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25">
-      <c r="A77" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25">
-      <c r="A78" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25">
-      <c r="A79" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25">
-      <c r="A80" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25">
-      <c r="A81" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25">
-      <c r="A82" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25">
-      <c r="A83" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25">
-      <c r="A84" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25">
-      <c r="A85" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25">
-      <c r="A86" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25">
-      <c r="A87" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25">
-      <c r="A88" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25">
-      <c r="A89" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="90" ht="14.25">
-      <c r="A90" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="91" ht="14.25">
-      <c r="A91" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25">
-      <c r="A92" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25">
-      <c r="A93" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" ht="14.25">
-      <c r="A94" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25">
-      <c r="A95" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="96" ht="14.25">
-      <c r="A96" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="97" ht="14.25">
-      <c r="A97" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" ht="14.25">
-      <c r="A98" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25">
-      <c r="A99" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25">
-      <c r="A100" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25">
-      <c r="A101" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="102" ht="14.25">
-      <c r="A102" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25">
-      <c r="A103" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="104" ht="14.25">
-      <c r="A104" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="105" ht="14.25">
-      <c r="A105" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="106" ht="14.25">
-      <c r="A106" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="107" ht="14.25">
-      <c r="A107" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="108" ht="14.25">
-      <c r="A108" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="109" ht="14.25">
-      <c r="A109" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="110" ht="14.25">
-      <c r="A110" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="111" ht="14.25">
-      <c r="A111" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="112" ht="14.25">
-      <c r="A112" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="113" ht="14.25">
-      <c r="A113" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="114" ht="14.25">
-      <c r="A114" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="115" ht="14.25">
-      <c r="A115" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="116" ht="14.25">
-      <c r="A116" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="117" ht="14.25">
-      <c r="A117" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="118" ht="14.25">
-      <c r="A118" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="119" ht="14.25">
-      <c r="A119" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="120" ht="14.25">
-      <c r="A120" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="121" ht="14.25">
-      <c r="A121" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="122" ht="14.25">
-      <c r="A122" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="123" ht="14.25">
-      <c r="A123" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="124" ht="14.25">
-      <c r="A124" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="125" ht="14.25">
-      <c r="A125" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="126" ht="14.25">
-      <c r="A126" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="127" ht="14.25">
-      <c r="A127" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="128" ht="14.25">
-      <c r="A128" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="129" ht="14.25">
-      <c r="A129" s="1"/>
-    </row>
-    <row r="130" ht="14.25"/>
-    <row r="131" ht="14.25"/>
-    <row r="132" ht="14.25"/>
-    <row r="133" ht="14.25"/>
-    <row r="134" ht="14.25"/>
-    <row r="135" ht="14.25"/>
-    <row r="136" ht="14.25"/>
-    <row r="137" ht="14.25"/>
-    <row r="138" ht="14.25"/>
-    <row r="139" ht="14.25"/>
-    <row r="140" ht="14.25"/>
-    <row r="141" ht="14.25"/>
-    <row r="142" ht="14.25"/>
-    <row r="143" ht="14.25"/>
-    <row r="144" ht="14.25"/>
-    <row r="145" ht="14.25"/>
-    <row r="146" ht="14.25"/>
-    <row r="147" ht="14.25"/>
-    <row r="148" ht="14.25"/>
-    <row r="149" ht="14.25"/>
-    <row r="150" ht="14.25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>255</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>